--- a/runs 1_2 selecting working.xlsx
+++ b/runs 1_2 selecting working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ilya/Work/Flavi CBD screen/CBD_synergy_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A0160-D81F-6545-BD8B-DE7FC39A58E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0AB35D-F0EC-F343-A077-C68044EC06EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13900" yWindow="4300" windowWidth="32240" windowHeight="17620" activeTab="2" xr2:uid="{CE9AAE3D-2711-8449-A06F-2A255ED734F9}"/>
   </bookViews>
@@ -943,77 +943,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F1907DA7-1158-F043-A4EE-F45899F46EE2}"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1166,16 +1096,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1221,56 +1141,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11273,38 +11143,38 @@
     <sortCondition ref="I2:I98"/>
   </sortState>
   <conditionalFormatting sqref="B2:E96">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThanOrEqual">
+      <formula>0.85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThanOrEqual">
       <formula>1.15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="lessThanOrEqual">
-      <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G96">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:M96">
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThanOrEqual">
+      <formula>0.85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThanOrEqual">
       <formula>1.15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThanOrEqual">
-      <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O96">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11314,10 +11184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885E244C-5F6E-E147-9C80-15DB20701FFA}">
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AA30" sqref="AA30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11327,7 +11197,7 @@
     <col min="22" max="22" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C1" s="10"/>
       <c r="D1" s="11" t="s">
         <v>223</v>
@@ -11349,7 +11219,7 @@
       </c>
       <c r="W1" s="10"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>231</v>
       </c>
@@ -11378,7 +11248,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>232</v>
       </c>
@@ -11419,7 +11289,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>233</v>
       </c>
@@ -11460,7 +11330,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>237</v>
       </c>
@@ -11485,7 +11355,7 @@
       <c r="V5" s="22"/>
       <c r="W5" s="19"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="O6" s="25" t="s">
         <v>240</v>
       </c>
@@ -11495,7 +11365,7 @@
       </c>
       <c r="AA6" s="26"/>
     </row>
-    <row r="7" spans="1:27" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -11576,7 +11446,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -11640,11 +11510,11 @@
         <v>0.64265443573748005</v>
       </c>
       <c r="T8" s="2">
-        <f>(R8&lt;0.85)+(S8&lt;0.85)</f>
+        <f t="shared" ref="T8:T39" si="6">(R8&lt;0.85)+(S8&lt;0.85)</f>
         <v>2</v>
       </c>
       <c r="U8" t="b">
-        <f>(S8&lt;0.75)</f>
+        <f t="shared" ref="U8:U39" si="7">(S8&lt;0.75)</f>
         <v>1</v>
       </c>
       <c r="V8" s="15">
@@ -11656,11 +11526,11 @@
         <v>0.63298013352527904</v>
       </c>
       <c r="X8" s="2">
-        <f>(V8&lt;0.85)+(W8&lt;0.85)</f>
+        <f t="shared" ref="X8:X39" si="8">(V8&lt;0.85)+(W8&lt;0.85)</f>
         <v>2</v>
       </c>
       <c r="Y8" t="b">
-        <f>(W8&lt;0.75)</f>
+        <f t="shared" ref="Y8:Y39" si="9">(W8&lt;0.75)</f>
         <v>1</v>
       </c>
       <c r="Z8">
@@ -11671,8 +11541,12 @@
         <f>U8+Y8</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8">
+        <f>COUNTIF(AA8:AA84, "&gt;0")</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -11736,11 +11610,11 @@
         <v>0.45090569829148403</v>
       </c>
       <c r="T9" s="2">
-        <f>(R9&lt;0.85)+(S9&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U9" t="b">
-        <f>(S9&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V9" s="15">
@@ -11752,23 +11626,27 @@
         <v>0.350718377959432</v>
       </c>
       <c r="X9" s="2">
-        <f>(V9&lt;0.85)+(W9&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y9" t="b">
-        <f>(W9&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z9">
-        <f t="shared" ref="Z9:Z72" si="6">T9+X9</f>
+        <f t="shared" ref="Z9:Z72" si="10">T9+X9</f>
         <v>4</v>
       </c>
       <c r="AA9">
-        <f t="shared" ref="AA9:AA72" si="7">U9+Y9</f>
+        <f t="shared" ref="AA9:AA72" si="11">U9+Y9</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC9">
+        <f>COUNTIF(AA8:AA84, "&gt;1")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -11832,11 +11710,11 @@
         <v>0.42778781705006702</v>
       </c>
       <c r="T10" s="2">
-        <f>(R10&lt;0.85)+(S10&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U10" t="b">
-        <f>(S10&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V10" s="15">
@@ -11848,23 +11726,23 @@
         <v>0.38584027008239902</v>
       </c>
       <c r="X10" s="2">
-        <f>(V10&lt;0.85)+(W10&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y10" t="b">
-        <f>(W10&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -11928,11 +11806,11 @@
         <v>0.48581077149276602</v>
       </c>
       <c r="T11" s="2">
-        <f>(R11&lt;0.85)+(S11&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U11" t="b">
-        <f>(S11&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V11" s="15">
@@ -11944,23 +11822,23 @@
         <v>0.46639835450119099</v>
       </c>
       <c r="X11" s="2">
-        <f>(V11&lt;0.85)+(W11&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y11" t="b">
-        <f>(W11&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -12024,11 +11902,11 @@
         <v>0.40517572660626</v>
       </c>
       <c r="T12" s="2">
-        <f>(R12&lt;0.85)+(S12&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U12" t="b">
-        <f>(S12&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V12" s="15">
@@ -12040,23 +11918,23 @@
         <v>0.38558022911093598</v>
       </c>
       <c r="X12" s="2">
-        <f>(V12&lt;0.85)+(W12&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y12" t="b">
-        <f>(W12&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -12120,11 +11998,11 @@
         <v>1.10350269664425</v>
       </c>
       <c r="T13" s="2">
-        <f>(R13&lt;0.85)+(S13&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U13" t="b">
-        <f>(S13&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V13" s="15">
@@ -12136,23 +12014,23 @@
         <v>1.0396126334176901</v>
       </c>
       <c r="X13" s="2">
-        <f>(V13&lt;0.85)+(W13&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y13" t="b">
-        <f>(W13&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -12216,11 +12094,11 @@
         <v>0.58630744138095703</v>
       </c>
       <c r="T14" s="2">
-        <f>(R14&lt;0.85)+(S14&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U14" t="b">
-        <f>(S14&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V14" s="15">
@@ -12232,23 +12110,23 @@
         <v>0.54340497840519897</v>
       </c>
       <c r="X14" s="2">
-        <f>(V14&lt;0.85)+(W14&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y14" t="b">
-        <f>(W14&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -12312,11 +12190,11 @@
         <v>0.47477271042500202</v>
       </c>
       <c r="T15" s="2">
-        <f>(R15&lt;0.85)+(S15&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U15" t="b">
-        <f>(S15&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V15" s="15">
@@ -12328,23 +12206,23 @@
         <v>0.37176925554296603</v>
       </c>
       <c r="X15" s="2">
-        <f>(V15&lt;0.85)+(W15&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y15" t="b">
-        <f>(W15&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -12408,11 +12286,11 @@
         <v>0.68308355850680502</v>
       </c>
       <c r="T16" s="2">
-        <f>(R16&lt;0.85)+(S16&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U16" t="b">
-        <f>(S16&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V16" s="15">
@@ -12424,19 +12302,19 @@
         <v>0.82352100049306298</v>
       </c>
       <c r="X16" s="2">
-        <f>(V16&lt;0.85)+(W16&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y16" t="b">
-        <f>(W16&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12504,11 +12382,11 @@
         <v>0.49683367303600501</v>
       </c>
       <c r="T17" s="2">
-        <f>(R17&lt;0.85)+(S17&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U17" t="b">
-        <f>(S17&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V17" s="15">
@@ -12520,19 +12398,19 @@
         <v>0.47591699540596</v>
       </c>
       <c r="X17" s="2">
-        <f>(V17&lt;0.85)+(W17&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y17" t="b">
-        <f>(W17&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -12600,11 +12478,11 @@
         <v>0.37235353962842999</v>
       </c>
       <c r="T18" s="2">
-        <f>(R18&lt;0.85)+(S18&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U18" t="b">
-        <f>(S18&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V18" s="15">
@@ -12616,19 +12494,19 @@
         <v>0.33363251230289198</v>
       </c>
       <c r="X18" s="2">
-        <f>(V18&lt;0.85)+(W18&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y18" t="b">
-        <f>(W18&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -12696,11 +12574,11 @@
         <v>0.67465865519272505</v>
       </c>
       <c r="T19" s="2">
-        <f>(R19&lt;0.85)+(S19&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U19" t="b">
-        <f>(S19&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V19" s="15">
@@ -12712,19 +12590,19 @@
         <v>0.66325814809655403</v>
       </c>
       <c r="X19" s="2">
-        <f>(V19&lt;0.85)+(W19&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y19" t="b">
-        <f>(W19&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -12792,11 +12670,11 @@
         <v>0.86514220532514696</v>
       </c>
       <c r="T20" s="2">
-        <f>(R20&lt;0.85)+(S20&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U20" t="b">
-        <f>(S20&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V20" s="15">
@@ -12808,19 +12686,19 @@
         <v>0.79026678306720299</v>
       </c>
       <c r="X20" s="2">
-        <f>(V20&lt;0.85)+(W20&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y20" t="b">
-        <f>(W20&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12888,11 +12766,11 @@
         <v>0.52969275445198405</v>
       </c>
       <c r="T21" s="2">
-        <f>(R21&lt;0.85)+(S21&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U21" t="b">
-        <f>(S21&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V21" s="15">
@@ -12904,19 +12782,19 @@
         <v>0.58254144453341306</v>
       </c>
       <c r="X21" s="2">
-        <f>(V21&lt;0.85)+(W21&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y21" t="b">
-        <f>(W21&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -12984,11 +12862,11 @@
         <v>0.43197224894800201</v>
       </c>
       <c r="T22" s="2">
-        <f>(R22&lt;0.85)+(S22&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U22" t="b">
-        <f>(S22&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V22" s="15">
@@ -13000,19 +12878,19 @@
         <v>0.49189264124714599</v>
       </c>
       <c r="X22" s="2">
-        <f>(V22&lt;0.85)+(W22&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y22" t="b">
-        <f>(W22&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -13080,11 +12958,11 @@
         <v>0.724718528843321</v>
       </c>
       <c r="T23" s="2">
-        <f>(R23&lt;0.85)+(S23&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U23" t="b">
-        <f>(S23&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V23" s="15">
@@ -13096,19 +12974,19 @@
         <v>0.75361622448934695</v>
       </c>
       <c r="X23" s="2">
-        <f>(V23&lt;0.85)+(W23&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y23" t="b">
-        <f>(W23&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -13176,11 +13054,11 @@
         <v>0.72808571516009801</v>
       </c>
       <c r="T24" s="2">
-        <f>(R24&lt;0.85)+(S24&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U24" t="b">
-        <f>(S24&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V24" s="15">
@@ -13192,19 +13070,19 @@
         <v>0.62097300003769695</v>
       </c>
       <c r="X24" s="2">
-        <f>(V24&lt;0.85)+(W24&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y24" t="b">
-        <f>(W24&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -13272,11 +13150,11 @@
         <v>0.64021284582367799</v>
       </c>
       <c r="T25" s="2">
-        <f>(R25&lt;0.85)+(S25&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U25" t="b">
-        <f>(S25&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V25" s="15">
@@ -13288,19 +13166,19 @@
         <v>0.77058846563210004</v>
       </c>
       <c r="X25" s="2">
-        <f>(V25&lt;0.85)+(W25&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y25" t="b">
-        <f>(W25&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -13368,11 +13246,11 @@
         <v>0.72055883291132505</v>
       </c>
       <c r="T26" s="2">
-        <f>(R26&lt;0.85)+(S26&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="U26" t="b">
-        <f>(S26&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V26" s="15">
@@ -13384,19 +13262,19 @@
         <v>0.84329184631710497</v>
       </c>
       <c r="X26" s="2">
-        <f>(V26&lt;0.85)+(W26&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y26" t="b">
-        <f>(W26&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -13464,11 +13342,11 @@
         <v>1.30068898135945</v>
       </c>
       <c r="T27" s="2">
-        <f>(R27&lt;0.85)+(S27&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U27" t="b">
-        <f>(S27&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V27" s="15">
@@ -13480,19 +13358,19 @@
         <v>1.29943840895442</v>
       </c>
       <c r="X27" s="2">
-        <f>(V27&lt;0.85)+(W27&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y27" t="b">
-        <f>(W27&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13560,11 +13438,11 @@
         <v>0.65525041137625695</v>
       </c>
       <c r="T28" s="2">
-        <f>(R28&lt;0.85)+(S28&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U28" t="b">
-        <f>(S28&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V28" s="15">
@@ -13576,19 +13454,19 @@
         <v>0.73944689614421999</v>
       </c>
       <c r="X28" s="2">
-        <f>(V28&lt;0.85)+(W28&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y28" t="b">
-        <f>(W28&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -13656,11 +13534,11 @@
         <v>0.77260985745084099</v>
       </c>
       <c r="T29" s="2">
-        <f>(R29&lt;0.85)+(S29&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U29" t="b">
-        <f>(S29&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V29" s="15">
@@ -13672,19 +13550,19 @@
         <v>0.75149154053511902</v>
       </c>
       <c r="X29" s="2">
-        <f>(V29&lt;0.85)+(W29&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y29" t="b">
-        <f>(W29&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13752,11 +13630,11 @@
         <v>0.725267873925035</v>
       </c>
       <c r="T30" s="2">
-        <f>(R30&lt;0.85)+(S30&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U30" t="b">
-        <f>(S30&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="V30" s="15">
@@ -13768,19 +13646,19 @@
         <v>0.747645355689742</v>
       </c>
       <c r="X30" s="2">
-        <f>(V30&lt;0.85)+(W30&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y30" t="b">
-        <f>(W30&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -13848,11 +13726,11 @@
         <v>1.1412593845014301</v>
       </c>
       <c r="T31" s="2">
-        <f>(R31&lt;0.85)+(S31&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31" t="b">
-        <f>(S31&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V31" s="15">
@@ -13864,19 +13742,19 @@
         <v>1.0948079935258299</v>
       </c>
       <c r="X31" s="2">
-        <f>(V31&lt;0.85)+(W31&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y31" t="b">
-        <f>(W31&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -13944,11 +13822,11 @@
         <v>0.941074261513551</v>
       </c>
       <c r="T32" s="2">
-        <f>(R32&lt;0.85)+(S32&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U32" t="b">
-        <f>(S32&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V32" s="15">
@@ -13960,19 +13838,19 @@
         <v>0.99251433073125905</v>
       </c>
       <c r="X32" s="2">
-        <f>(V32&lt;0.85)+(W32&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y32" t="b">
-        <f>(W32&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14040,11 +13918,11 @@
         <v>0.872176888489404</v>
       </c>
       <c r="T33" s="2">
-        <f>(R33&lt;0.85)+(S33&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33" t="b">
-        <f>(S33&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V33" s="15">
@@ -14056,19 +13934,19 @@
         <v>0.76582452610130602</v>
       </c>
       <c r="X33" s="2">
-        <f>(V33&lt;0.85)+(W33&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="Y33" t="b">
-        <f>(W33&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14136,11 +14014,11 @@
         <v>0.77749929324325895</v>
       </c>
       <c r="T34" s="2">
-        <f>(R34&lt;0.85)+(S34&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U34" t="b">
-        <f>(S34&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V34" s="15">
@@ -14152,19 +14030,19 @@
         <v>0.84707713989122202</v>
       </c>
       <c r="X34" s="2">
-        <f>(V34&lt;0.85)+(W34&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y34" t="b">
-        <f>(W34&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14232,11 +14110,11 @@
         <v>0.95341679972706805</v>
       </c>
       <c r="T35" s="2">
-        <f>(R35&lt;0.85)+(S35&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U35" t="b">
-        <f>(S35&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35" s="15">
@@ -14248,19 +14126,19 @@
         <v>0.93242627100019304</v>
       </c>
       <c r="X35" s="2">
-        <f>(V35&lt;0.85)+(W35&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y35" t="b">
-        <f>(W35&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14328,11 +14206,11 @@
         <v>0.89802726980296399</v>
       </c>
       <c r="T36" s="2">
-        <f>(R36&lt;0.85)+(S36&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U36" t="b">
-        <f>(S36&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V36" s="15">
@@ -14344,19 +14222,19 @@
         <v>0.94233070297743105</v>
       </c>
       <c r="X36" s="2">
-        <f>(V36&lt;0.85)+(W36&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y36" t="b">
-        <f>(W36&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14424,11 +14302,11 @@
         <v>0.77773391360108701</v>
       </c>
       <c r="T37" s="2">
-        <f>(R37&lt;0.85)+(S37&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="U37" t="b">
-        <f>(S37&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37" s="15">
@@ -14440,19 +14318,19 @@
         <v>0.70057963772926701</v>
       </c>
       <c r="X37" s="2">
-        <f>(V37&lt;0.85)+(W37&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Y37" t="b">
-        <f>(W37&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -14520,11 +14398,11 @@
         <v>1.0336075149207</v>
       </c>
       <c r="T38" s="2">
-        <f>(R38&lt;0.85)+(S38&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U38" t="b">
-        <f>(S38&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="15">
@@ -14536,19 +14414,19 @@
         <v>1.0083714569093301</v>
       </c>
       <c r="X38" s="2">
-        <f>(V38&lt;0.85)+(W38&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y38" t="b">
-        <f>(W38&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14616,11 +14494,11 @@
         <v>0.90019674082450696</v>
       </c>
       <c r="T39" s="2">
-        <f>(R39&lt;0.85)+(S39&lt;0.85)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U39" t="b">
-        <f>(S39&lt;0.75)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V39" s="15">
@@ -14632,19 +14510,19 @@
         <v>0.93544367518891602</v>
       </c>
       <c r="X39" s="2">
-        <f>(V39&lt;0.85)+(W39&lt;0.85)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y39" t="b">
-        <f>(W39&lt;0.75)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14668,11 +14546,11 @@
         <v>0.84920202015282598</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" ref="G40:G71" si="8">(C40&lt;0.85)+(E40&lt;0.85)</f>
+        <f t="shared" ref="G40:G71" si="12">(C40&lt;0.85)+(E40&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="H40" t="b">
-        <f t="shared" ref="H40:H71" si="9">(E40&lt;0.75)</f>
+        <f t="shared" ref="H40:H71" si="13">(E40&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="I40" s="1">
@@ -14688,19 +14566,19 @@
         <v>0.77700450896047502</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" ref="M40:M71" si="10">(I40&lt;0.85)+(K40&lt;0.85)</f>
+        <f t="shared" ref="M40:M71" si="14">(I40&lt;0.85)+(K40&lt;0.85)</f>
         <v>1</v>
       </c>
       <c r="N40" t="b">
-        <f t="shared" ref="N40:N71" si="11">(K40&lt;0.75)</f>
+        <f t="shared" ref="N40:N71" si="15">(K40&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" ref="O40:O71" si="12">G40+M40</f>
+        <f t="shared" ref="O40:O71" si="16">G40+M40</f>
         <v>1</v>
       </c>
       <c r="P40">
-        <f t="shared" ref="P40:P71" si="13">H40+N40</f>
+        <f t="shared" ref="P40:P71" si="17">H40+N40</f>
         <v>0</v>
       </c>
       <c r="R40" s="1">
@@ -14712,11 +14590,11 @@
         <v>0.82801173160855002</v>
       </c>
       <c r="T40" s="2">
-        <f>(R40&lt;0.85)+(S40&lt;0.85)</f>
+        <f t="shared" ref="T40:T71" si="18">(R40&lt;0.85)+(S40&lt;0.85)</f>
         <v>1</v>
       </c>
       <c r="U40" t="b">
-        <f>(S40&lt;0.75)</f>
+        <f t="shared" ref="U40:U71" si="19">(S40&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="V40" s="15">
@@ -14728,19 +14606,19 @@
         <v>0.87408265294804999</v>
       </c>
       <c r="X40" s="2">
-        <f>(V40&lt;0.85)+(W40&lt;0.85)</f>
+        <f t="shared" ref="X40:X71" si="20">(V40&lt;0.85)+(W40&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="Y40" t="b">
-        <f>(W40&lt;0.75)</f>
+        <f t="shared" ref="Y40:Y71" si="21">(W40&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14764,11 +14642,11 @@
         <v>0.92610009635606205</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H41" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I41" s="1">
@@ -14784,19 +14662,19 @@
         <v>0.91836953281517097</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N41" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R41" s="1">
@@ -14808,11 +14686,11 @@
         <v>0.68306037615693205</v>
       </c>
       <c r="T41" s="2">
-        <f>(R41&lt;0.85)+(S41&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U41" t="b">
-        <f>(S41&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V41" s="15">
@@ -14824,19 +14702,19 @@
         <v>0.74061961900646101</v>
       </c>
       <c r="X41" s="2">
-        <f>(V41&lt;0.85)+(W41&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="Y41" t="b">
-        <f>(W41&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -14860,11 +14738,11 @@
         <v>1.0301619821400501</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H42" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I42" s="1">
@@ -14880,19 +14758,19 @@
         <v>0.96030371380854695</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N42" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R42" s="1">
@@ -14904,11 +14782,11 @@
         <v>0.96906150414928405</v>
       </c>
       <c r="T42" s="2">
-        <f>(R42&lt;0.85)+(S42&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U42" t="b">
-        <f>(S42&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V42" s="15">
@@ -14920,19 +14798,19 @@
         <v>0.90936976253458002</v>
       </c>
       <c r="X42" s="2">
-        <f>(V42&lt;0.85)+(W42&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y42" t="b">
-        <f>(W42&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -14956,11 +14834,11 @@
         <v>1.0132352591973599</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H43" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I43" s="1">
@@ -14976,19 +14854,19 @@
         <v>0.99854954942892904</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N43" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R43" s="1">
@@ -15000,11 +14878,11 @@
         <v>1.06299600983446</v>
       </c>
       <c r="T43" s="2">
-        <f>(R43&lt;0.85)+(S43&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U43" t="b">
-        <f>(S43&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V43" s="15">
@@ -15016,19 +14894,19 @@
         <v>0.95285026043620302</v>
       </c>
       <c r="X43" s="2">
-        <f>(V43&lt;0.85)+(W43&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y43" t="b">
-        <f>(W43&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15052,11 +14930,11 @@
         <v>0.95978977893357897</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H44" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I44" s="1">
@@ -15072,19 +14950,19 @@
         <v>0.90289654766688898</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N44" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R44" s="1">
@@ -15096,11 +14974,11 @@
         <v>1.0312548484292201</v>
       </c>
       <c r="T44" s="2">
-        <f>(R44&lt;0.85)+(S44&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U44" t="b">
-        <f>(S44&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V44" s="15">
@@ -15112,19 +14990,19 @@
         <v>0.99780901207175798</v>
       </c>
       <c r="X44" s="2">
-        <f>(V44&lt;0.85)+(W44&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y44" t="b">
-        <f>(W44&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15148,11 +15026,11 @@
         <v>0.913740959190391</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H45" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I45" s="1">
@@ -15168,19 +15046,19 @@
         <v>0.89871617151663397</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N45" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R45" s="1">
@@ -15192,11 +15070,11 @@
         <v>1.0731370515126699</v>
       </c>
       <c r="T45" s="2">
-        <f>(R45&lt;0.85)+(S45&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U45" t="b">
-        <f>(S45&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V45" s="15">
@@ -15208,19 +15086,19 @@
         <v>1.0910855790318399</v>
       </c>
       <c r="X45" s="2">
-        <f>(V45&lt;0.85)+(W45&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y45" t="b">
-        <f>(W45&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15244,11 +15122,11 @@
         <v>0.84720175139349296</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H46" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I46" s="1">
@@ -15264,19 +15142,19 @@
         <v>0.71419576240381</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N46" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R46" s="1">
@@ -15288,11 +15166,11 @@
         <v>1.08463846449086</v>
       </c>
       <c r="T46" s="2">
-        <f>(R46&lt;0.85)+(S46&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U46" t="b">
-        <f>(S46&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V46" s="15">
@@ -15304,19 +15182,19 @@
         <v>1.0797911585270601</v>
       </c>
       <c r="X46" s="2">
-        <f>(V46&lt;0.85)+(W46&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y46" t="b">
-        <f>(W46&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15340,11 +15218,11 @@
         <v>0.95046620557288997</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H47" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I47" s="1">
@@ -15360,19 +15238,19 @@
         <v>0.975001547248737</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N47" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R47" s="1">
@@ -15384,11 +15262,11 @@
         <v>0.91310489985038801</v>
       </c>
       <c r="T47" s="2">
-        <f>(R47&lt;0.85)+(S47&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U47" t="b">
-        <f>(S47&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V47" s="15">
@@ -15400,19 +15278,19 @@
         <v>0.93545985073362703</v>
       </c>
       <c r="X47" s="2">
-        <f>(V47&lt;0.85)+(W47&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y47" t="b">
-        <f>(W47&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15436,11 +15314,11 @@
         <v>0.96369681719034705</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H48" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I48" s="1">
@@ -15456,19 +15334,19 @@
         <v>0.941040217996721</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N48" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R48" s="1">
@@ -15480,11 +15358,11 @@
         <v>1.23019869160754</v>
       </c>
       <c r="T48" s="2">
-        <f>(R48&lt;0.85)+(S48&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U48" t="b">
-        <f>(S48&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V48" s="15">
@@ -15496,19 +15374,19 @@
         <v>1.1171483077893001</v>
       </c>
       <c r="X48" s="2">
-        <f>(V48&lt;0.85)+(W48&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y48" t="b">
-        <f>(W48&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15532,11 +15410,11 @@
         <v>0.89253714509528803</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H49" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I49" s="1">
@@ -15552,19 +15430,19 @@
         <v>1.0297071429122799</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N49" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R49" s="1">
@@ -15576,11 +15454,11 @@
         <v>0.27553484967444303</v>
       </c>
       <c r="T49" s="2">
-        <f>(R49&lt;0.85)+(S49&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U49" t="b">
-        <f>(S49&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="V49" s="15">
@@ -15592,19 +15470,19 @@
         <v>0.20149191996563101</v>
       </c>
       <c r="X49" s="2">
-        <f>(V49&lt;0.85)+(W49&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Y49" t="b">
-        <f>(W49&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -15628,11 +15506,11 @@
         <v>0.94862600927444796</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H50" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I50" s="1">
@@ -15648,19 +15526,19 @@
         <v>1.06520141414986</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N50" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R50" s="1">
@@ -15672,11 +15550,11 @@
         <v>0.94135342989675197</v>
       </c>
       <c r="T50" s="2">
-        <f>(R50&lt;0.85)+(S50&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U50" t="b">
-        <f>(S50&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V50" s="15">
@@ -15688,19 +15566,19 @@
         <v>0.96991912979855999</v>
       </c>
       <c r="X50" s="2">
-        <f>(V50&lt;0.85)+(W50&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y50" t="b">
-        <f>(W50&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15724,11 +15602,11 @@
         <v>1.04864718927779</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H51" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I51" s="1">
@@ -15744,19 +15622,19 @@
         <v>0.84259036241308904</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N51" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R51" s="1">
@@ -15768,11 +15646,11 @@
         <v>1.15482825732831</v>
       </c>
       <c r="T51" s="2">
-        <f>(R51&lt;0.85)+(S51&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U51" t="b">
-        <f>(S51&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V51" s="15">
@@ -15784,19 +15662,19 @@
         <v>1.0400243552414901</v>
       </c>
       <c r="X51" s="2">
-        <f>(V51&lt;0.85)+(W51&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Y51" t="b">
-        <f>(W51&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15820,11 +15698,11 @@
         <v>1.0179986486716801</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H52" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I52" s="1">
@@ -15840,19 +15718,19 @@
         <v>0.98550770140474997</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N52" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R52" s="1">
@@ -15864,11 +15742,11 @@
         <v>0.98448775701606495</v>
       </c>
       <c r="T52" s="2">
-        <f>(R52&lt;0.85)+(S52&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U52" t="b">
-        <f>(S52&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V52" s="15">
@@ -15880,19 +15758,19 @@
         <v>0.94253621591527104</v>
       </c>
       <c r="X52" s="2">
-        <f>(V52&lt;0.85)+(W52&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y52" t="b">
-        <f>(W52&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -15916,11 +15794,11 @@
         <v>1.0213898857669099</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H53" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I53" s="1">
@@ -15936,19 +15814,19 @@
         <v>0.94976657396224795</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N53" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R53" s="1">
@@ -15960,11 +15838,11 @@
         <v>0.84901151305702904</v>
       </c>
       <c r="T53" s="2">
-        <f>(R53&lt;0.85)+(S53&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U53" t="b">
-        <f>(S53&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V53" s="15">
@@ -15976,19 +15854,19 @@
         <v>0.85501768658450406</v>
       </c>
       <c r="X53" s="2">
-        <f>(V53&lt;0.85)+(W53&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Y53" t="b">
-        <f>(W53&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16012,11 +15890,11 @@
         <v>1.0050314179920901</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H54" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I54" s="1">
@@ -16032,19 +15910,19 @@
         <v>1.0032669860999499</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N54" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R54" s="1">
@@ -16056,11 +15934,11 @@
         <v>1.0092319854084999</v>
       </c>
       <c r="T54" s="2">
-        <f>(R54&lt;0.85)+(S54&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U54" t="b">
-        <f>(S54&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V54" s="15">
@@ -16072,19 +15950,19 @@
         <v>0.94213302831586199</v>
       </c>
       <c r="X54" s="2">
-        <f>(V54&lt;0.85)+(W54&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y54" t="b">
-        <f>(W54&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16108,11 +15986,11 @@
         <v>1.0032562967819401</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H55" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I55" s="1">
@@ -16128,19 +16006,19 @@
         <v>0.949235436900283</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N55" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R55" s="1">
@@ -16152,11 +16030,11 @@
         <v>1.1109713380844699</v>
       </c>
       <c r="T55" s="2">
-        <f>(R55&lt;0.85)+(S55&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U55" t="b">
-        <f>(S55&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V55" s="15">
@@ -16168,19 +16046,19 @@
         <v>1.1165896192537199</v>
       </c>
       <c r="X55" s="2">
-        <f>(V55&lt;0.85)+(W55&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y55" t="b">
-        <f>(W55&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16204,11 +16082,11 @@
         <v>0.98296670912218298</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H56" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I56" s="1">
@@ -16224,19 +16102,19 @@
         <v>0.99699141900376698</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N56" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R56" s="1">
@@ -16248,11 +16126,11 @@
         <v>0.85747260233594502</v>
       </c>
       <c r="T56" s="2">
-        <f>(R56&lt;0.85)+(S56&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U56" t="b">
-        <f>(S56&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V56" s="15">
@@ -16264,19 +16142,19 @@
         <v>0.85649651910698898</v>
       </c>
       <c r="X56" s="2">
-        <f>(V56&lt;0.85)+(W56&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y56" t="b">
-        <f>(W56&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16300,11 +16178,11 @@
         <v>1.25320509439825</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H57" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I57" s="1">
@@ -16320,19 +16198,19 @@
         <v>0.961526074634244</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N57" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R57" s="1">
@@ -16344,11 +16222,11 @@
         <v>0.82548392859174702</v>
       </c>
       <c r="T57" s="2">
-        <f>(R57&lt;0.85)+(S57&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="U57" t="b">
-        <f>(S57&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V57" s="15">
@@ -16360,19 +16238,19 @@
         <v>0.97741436293972805</v>
       </c>
       <c r="X57" s="2">
-        <f>(V57&lt;0.85)+(W57&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y57" t="b">
-        <f>(W57&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16396,11 +16274,11 @@
         <v>1.0098022345239499</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H58" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I58" s="1">
@@ -16416,19 +16294,19 @@
         <v>0.95876953232383499</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N58" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R58" s="1">
@@ -16440,11 +16318,11 @@
         <v>1.1367046229611599</v>
       </c>
       <c r="T58" s="2">
-        <f>(R58&lt;0.85)+(S58&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U58" t="b">
-        <f>(S58&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V58" s="15">
@@ -16456,19 +16334,19 @@
         <v>1.0402084505881299</v>
       </c>
       <c r="X58" s="2">
-        <f>(V58&lt;0.85)+(W58&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y58" t="b">
-        <f>(W58&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16492,11 +16370,11 @@
         <v>0.99418681471788695</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H59" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I59" s="1">
@@ -16512,19 +16390,19 @@
         <v>0.90183228324605302</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N59" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R59" s="1">
@@ -16536,11 +16414,11 @@
         <v>1.0139853948041</v>
       </c>
       <c r="T59" s="2">
-        <f>(R59&lt;0.85)+(S59&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U59" t="b">
-        <f>(S59&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V59" s="15">
@@ -16552,19 +16430,19 @@
         <v>0.97829759300961405</v>
       </c>
       <c r="X59" s="2">
-        <f>(V59&lt;0.85)+(W59&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y59" t="b">
-        <f>(W59&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16588,11 +16466,11 @@
         <v>0.99366933173792704</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H60" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I60" s="1">
@@ -16608,19 +16486,19 @@
         <v>1.0316693531218599</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N60" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R60" s="1">
@@ -16632,11 +16510,11 @@
         <v>1.1916951038336601</v>
       </c>
       <c r="T60" s="2">
-        <f>(R60&lt;0.85)+(S60&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U60" t="b">
-        <f>(S60&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V60" s="15">
@@ -16648,19 +16526,19 @@
         <v>1.1864881148639801</v>
       </c>
       <c r="X60" s="2">
-        <f>(V60&lt;0.85)+(W60&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y60" t="b">
-        <f>(W60&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16684,11 +16562,11 @@
         <v>1.0528686587165501</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H61" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I61" s="1">
@@ -16704,19 +16582,19 @@
         <v>1.0134993581879399</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N61" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R61" s="1">
@@ -16728,11 +16606,11 @@
         <v>1.0213755175419601</v>
       </c>
       <c r="T61" s="2">
-        <f>(R61&lt;0.85)+(S61&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U61" t="b">
-        <f>(S61&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V61" s="15">
@@ -16744,19 +16622,19 @@
         <v>1.0970293507653199</v>
       </c>
       <c r="X61" s="2">
-        <f>(V61&lt;0.85)+(W61&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y61" t="b">
-        <f>(W61&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16780,11 +16658,11 @@
         <v>0.98006946844556597</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H62" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I62" s="1">
@@ -16800,19 +16678,19 @@
         <v>1.0205991071781599</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N62" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R62" s="1">
@@ -16824,11 +16702,11 @@
         <v>1.2096698856735499</v>
       </c>
       <c r="T62" s="2">
-        <f>(R62&lt;0.85)+(S62&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U62" t="b">
-        <f>(S62&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V62" s="15">
@@ -16840,19 +16718,19 @@
         <v>1.12942926669819</v>
       </c>
       <c r="X62" s="2">
-        <f>(V62&lt;0.85)+(W62&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y62" t="b">
-        <f>(W62&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16876,11 +16754,11 @@
         <v>1.0079720295227499</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H63" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I63" s="1">
@@ -16896,19 +16774,19 @@
         <v>1.03406173017514</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N63" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R63" s="1">
@@ -16920,11 +16798,11 @@
         <v>1.0829983981411899</v>
       </c>
       <c r="T63" s="2">
-        <f>(R63&lt;0.85)+(S63&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U63" t="b">
-        <f>(S63&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V63" s="15">
@@ -16936,19 +16814,19 @@
         <v>1.1400437438579401</v>
       </c>
       <c r="X63" s="2">
-        <f>(V63&lt;0.85)+(W63&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y63" t="b">
-        <f>(W63&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16972,11 +16850,11 @@
         <v>0.85352032510361697</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H64" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I64" s="1">
@@ -16992,19 +16870,19 @@
         <v>0.88671114893247904</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N64" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R64" s="1">
@@ -17016,11 +16894,11 @@
         <v>0.76401808904412905</v>
       </c>
       <c r="T64" s="2">
-        <f>(R64&lt;0.85)+(S64&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="U64" t="b">
-        <f>(S64&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V64" s="15">
@@ -17032,19 +16910,19 @@
         <v>0.69677779597998202</v>
       </c>
       <c r="X64" s="2">
-        <f>(V64&lt;0.85)+(W64&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="Y64" t="b">
-        <f>(W64&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17068,11 +16946,11 @@
         <v>1.38112971577993</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H65" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I65" s="1">
@@ -17088,19 +16966,19 @@
         <v>1.00427004396477</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N65" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R65" s="1">
@@ -17112,11 +16990,11 @@
         <v>0.93408086576561999</v>
       </c>
       <c r="T65" s="2">
-        <f>(R65&lt;0.85)+(S65&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U65" t="b">
-        <f>(S65&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V65" s="15">
@@ -17128,19 +17006,19 @@
         <v>0.91940286767156998</v>
       </c>
       <c r="X65" s="2">
-        <f>(V65&lt;0.85)+(W65&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y65" t="b">
-        <f>(W65&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17164,11 +17042,11 @@
         <v>1.0049243431808901</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H66" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I66" s="1">
@@ -17184,19 +17062,19 @@
         <v>1.0279921202658</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N66" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R66" s="1">
@@ -17208,11 +17086,11 @@
         <v>1.0523227880873001</v>
       </c>
       <c r="T66" s="2">
-        <f>(R66&lt;0.85)+(S66&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U66" t="b">
-        <f>(S66&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V66" s="15">
@@ -17224,19 +17102,19 @@
         <v>0.97752114191990003</v>
       </c>
       <c r="X66" s="2">
-        <f>(V66&lt;0.85)+(W66&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y66" t="b">
-        <f>(W66&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17260,11 +17138,11 @@
         <v>1.0524704349504099</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H67" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I67" s="1">
@@ -17280,19 +17158,19 @@
         <v>1.0559125172458801</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N67" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R67" s="1">
@@ -17304,11 +17182,11 @@
         <v>0.97572612413896798</v>
       </c>
       <c r="T67" s="2">
-        <f>(R67&lt;0.85)+(S67&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U67" t="b">
-        <f>(S67&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V67" s="15">
@@ -17320,19 +17198,19 @@
         <v>0.95198131110599804</v>
       </c>
       <c r="X67" s="2">
-        <f>(V67&lt;0.85)+(W67&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y67" t="b">
-        <f>(W67&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17356,11 +17234,11 @@
         <v>0.99330985751283996</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H68" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I68" s="1">
@@ -17376,19 +17254,19 @@
         <v>0.97859403193021199</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N68" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R68" s="1">
@@ -17400,11 +17278,11 @@
         <v>0.99359562009600999</v>
       </c>
       <c r="T68" s="2">
-        <f>(R68&lt;0.85)+(S68&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U68" t="b">
-        <f>(S68&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V68" s="15">
@@ -17416,19 +17294,19 @@
         <v>0.94324030546734305</v>
       </c>
       <c r="X68" s="2">
-        <f>(V68&lt;0.85)+(W68&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y68" t="b">
-        <f>(W68&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17452,11 +17330,11 @@
         <v>0.960160806797417</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H69" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I69" s="1">
@@ -17472,19 +17350,19 @@
         <v>1.0053203212519299</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N69" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R69" s="1">
@@ -17496,11 +17374,11 @@
         <v>1.1376386324925201</v>
       </c>
       <c r="T69" s="2">
-        <f>(R69&lt;0.85)+(S69&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U69" t="b">
-        <f>(S69&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V69" s="15">
@@ -17512,19 +17390,19 @@
         <v>1.0754987788988899</v>
       </c>
       <c r="X69" s="2">
-        <f>(V69&lt;0.85)+(W69&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y69" t="b">
-        <f>(W69&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17548,11 +17426,11 @@
         <v>1.05976568778792</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H70" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I70" s="1">
@@ -17568,19 +17446,19 @@
         <v>1.00223140867433</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N70" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R70" s="1">
@@ -17592,11 +17470,11 @@
         <v>1.1323657234143001</v>
       </c>
       <c r="T70" s="2">
-        <f>(R70&lt;0.85)+(S70&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U70" t="b">
-        <f>(S70&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V70" s="15">
@@ -17608,19 +17486,19 @@
         <v>1.07742387960218</v>
       </c>
       <c r="X70" s="2">
-        <f>(V70&lt;0.85)+(W70&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y70" t="b">
-        <f>(W70&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17644,11 +17522,11 @@
         <v>0.97165428590157499</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H71" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I71" s="1">
@@ -17664,19 +17542,19 @@
         <v>1.0080956522926201</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N71" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R71" s="1">
@@ -17688,11 +17566,11 @@
         <v>0.86412113896537202</v>
       </c>
       <c r="T71" s="2">
-        <f>(R71&lt;0.85)+(S71&lt;0.85)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U71" t="b">
-        <f>(S71&lt;0.75)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V71" s="15">
@@ -17704,19 +17582,19 @@
         <v>0.81828130875192695</v>
       </c>
       <c r="X71" s="2">
-        <f>(V71&lt;0.85)+(W71&lt;0.85)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Y71" t="b">
-        <f>(W71&lt;0.75)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17740,11 +17618,11 @@
         <v>0.99784729500456903</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" ref="G72:G82" si="14">(C72&lt;0.85)+(E72&lt;0.85)</f>
+        <f t="shared" ref="G72:G82" si="22">(C72&lt;0.85)+(E72&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="H72" t="b">
-        <f t="shared" ref="H72:H82" si="15">(E72&lt;0.75)</f>
+        <f t="shared" ref="H72:H82" si="23">(E72&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="I72" s="1">
@@ -17760,19 +17638,19 @@
         <v>1.0103252427231499</v>
       </c>
       <c r="M72" s="2">
-        <f t="shared" ref="M72:M82" si="16">(I72&lt;0.85)+(K72&lt;0.85)</f>
+        <f t="shared" ref="M72:M82" si="24">(I72&lt;0.85)+(K72&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="N72" t="b">
-        <f t="shared" ref="N72:N82" si="17">(K72&lt;0.75)</f>
+        <f t="shared" ref="N72:N82" si="25">(K72&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" ref="O72:O82" si="18">G72+M72</f>
+        <f t="shared" ref="O72:O82" si="26">G72+M72</f>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" ref="P72:P82" si="19">H72+N72</f>
+        <f t="shared" ref="P72:P82" si="27">H72+N72</f>
         <v>0</v>
       </c>
       <c r="R72" s="1">
@@ -17784,11 +17662,11 @@
         <v>1.0487060928054699</v>
       </c>
       <c r="T72" s="2">
-        <f>(R72&lt;0.85)+(S72&lt;0.85)</f>
+        <f t="shared" ref="T72:T103" si="28">(R72&lt;0.85)+(S72&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="U72" t="b">
-        <f>(S72&lt;0.75)</f>
+        <f t="shared" ref="U72:U82" si="29">(S72&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="V72" s="15">
@@ -17800,19 +17678,19 @@
         <v>1.13884664858689</v>
       </c>
       <c r="X72" s="2">
-        <f>(V72&lt;0.85)+(W72&lt;0.85)</f>
+        <f t="shared" ref="X72:X103" si="30">(V72&lt;0.85)+(W72&lt;0.85)</f>
         <v>0</v>
       </c>
       <c r="Y72" t="b">
-        <f>(W72&lt;0.75)</f>
+        <f t="shared" ref="Y72:Y82" si="31">(W72&lt;0.75)</f>
         <v>0</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17836,11 +17714,11 @@
         <v>1.04520520362069</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H73" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I73" s="1">
@@ -17856,19 +17734,19 @@
         <v>0.97688906569203904</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N73" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R73" s="1">
@@ -17880,11 +17758,11 @@
         <v>1.0735676775477601</v>
       </c>
       <c r="T73" s="2">
-        <f>(R73&lt;0.85)+(S73&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U73" t="b">
-        <f>(S73&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V73" s="15">
@@ -17896,19 +17774,19 @@
         <v>1.1132314203692</v>
       </c>
       <c r="X73" s="2">
-        <f>(V73&lt;0.85)+(W73&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y73" t="b">
-        <f>(W73&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z73">
-        <f t="shared" ref="Z73:Z82" si="20">T73+X73</f>
+        <f t="shared" ref="Z73:Z82" si="32">T73+X73</f>
         <v>0</v>
       </c>
       <c r="AA73">
-        <f t="shared" ref="AA73:AA82" si="21">U73+Y73</f>
+        <f t="shared" ref="AA73:AA82" si="33">U73+Y73</f>
         <v>0</v>
       </c>
     </row>
@@ -17932,11 +17810,11 @@
         <v>1.0236118311731399</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H74" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I74" s="1">
@@ -17952,19 +17830,19 @@
         <v>1.01410203989926</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N74" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R74" s="1">
@@ -17976,11 +17854,11 @@
         <v>1.08899143096853</v>
       </c>
       <c r="T74" s="2">
-        <f>(R74&lt;0.85)+(S74&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U74" t="b">
-        <f>(S74&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V74" s="15">
@@ -17992,19 +17870,19 @@
         <v>0.99628152780192103</v>
       </c>
       <c r="X74" s="2">
-        <f>(V74&lt;0.85)+(W74&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y74" t="b">
-        <f>(W74&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18028,11 +17906,11 @@
         <v>0.92094264984167096</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H75" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I75" s="1">
@@ -18048,19 +17926,19 @@
         <v>1.0124609883903399</v>
       </c>
       <c r="M75" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N75" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R75" s="1">
@@ -18072,11 +17950,11 @@
         <v>0.95770979435360704</v>
       </c>
       <c r="T75" s="2">
-        <f>(R75&lt;0.85)+(S75&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U75" t="b">
-        <f>(S75&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V75" s="15">
@@ -18088,19 +17966,19 @@
         <v>0.91881159382786803</v>
       </c>
       <c r="X75" s="2">
-        <f>(V75&lt;0.85)+(W75&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y75" t="b">
-        <f>(W75&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA75">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18124,11 +18002,11 @@
         <v>0.87983082726709105</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H76" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I76" s="1">
@@ -18144,19 +18022,19 @@
         <v>0.881533802633096</v>
       </c>
       <c r="M76" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N76" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R76" s="1">
@@ -18168,11 +18046,11 @@
         <v>1.02609094268117</v>
       </c>
       <c r="T76" s="2">
-        <f>(R76&lt;0.85)+(S76&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U76" t="b">
-        <f>(S76&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V76" s="15">
@@ -18184,19 +18062,19 @@
         <v>0.86896151390490295</v>
       </c>
       <c r="X76" s="2">
-        <f>(V76&lt;0.85)+(W76&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Y76" t="b">
-        <f>(W76&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18220,11 +18098,11 @@
         <v>0.94168859561404805</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H77" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I77" s="1">
@@ -18240,19 +18118,19 @@
         <v>0.96351145071088695</v>
       </c>
       <c r="M77" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N77" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R77" s="1">
@@ -18264,11 +18142,11 @@
         <v>0.665924503113004</v>
       </c>
       <c r="T77" s="2">
-        <f>(R77&lt;0.85)+(S77&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="U77" t="b">
-        <f>(S77&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V77" s="15">
@@ -18280,19 +18158,19 @@
         <v>0.71513006300286597</v>
       </c>
       <c r="X77" s="2">
-        <f>(V77&lt;0.85)+(W77&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Y77" t="b">
-        <f>(W77&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="AA77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
     </row>
@@ -18316,11 +18194,11 @@
         <v>1.01633290758761</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H78" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I78" s="1">
@@ -18336,19 +18214,19 @@
         <v>1.01544343209705</v>
       </c>
       <c r="M78" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N78" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R78" s="1">
@@ -18360,11 +18238,11 @@
         <v>0.92679553381552005</v>
       </c>
       <c r="T78" s="2">
-        <f>(R78&lt;0.85)+(S78&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U78" t="b">
-        <f>(S78&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V78" s="15">
@@ -18376,19 +18254,19 @@
         <v>0.89055594852147602</v>
       </c>
       <c r="X78" s="2">
-        <f>(V78&lt;0.85)+(W78&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y78" t="b">
-        <f>(W78&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18412,11 +18290,11 @@
         <v>1.0251796623495</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H79" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I79" s="1">
@@ -18432,19 +18310,19 @@
         <v>0.98488388006568195</v>
       </c>
       <c r="M79" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N79" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R79" s="1">
@@ -18456,11 +18334,11 @@
         <v>0.92644156644909004</v>
       </c>
       <c r="T79" s="2">
-        <f>(R79&lt;0.85)+(S79&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U79" t="b">
-        <f>(S79&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V79" s="15">
@@ -18472,19 +18350,19 @@
         <v>0.97971871505199304</v>
       </c>
       <c r="X79" s="2">
-        <f>(V79&lt;0.85)+(W79&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y79" t="b">
-        <f>(W79&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18508,11 +18386,11 @@
         <v>1.0266650711904199</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H80" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I80" s="1">
@@ -18528,19 +18406,19 @@
         <v>1.01188997791708</v>
       </c>
       <c r="M80" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N80" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R80" s="1">
@@ -18552,11 +18430,11 @@
         <v>1.16754875971814</v>
       </c>
       <c r="T80" s="2">
-        <f>(R80&lt;0.85)+(S80&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U80" t="b">
-        <f>(S80&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V80" s="15">
@@ -18568,19 +18446,19 @@
         <v>1.20489593376038</v>
       </c>
       <c r="X80" s="2">
-        <f>(V80&lt;0.85)+(W80&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y80" t="b">
-        <f>(W80&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18604,11 +18482,11 @@
         <v>1.0162907569684001</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H81" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I81" s="1">
@@ -18624,19 +18502,19 @@
         <v>1.10975338711783</v>
       </c>
       <c r="M81" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N81" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R81" s="1">
@@ -18648,11 +18526,11 @@
         <v>1.13127244280984</v>
       </c>
       <c r="T81" s="2">
-        <f>(R81&lt;0.85)+(S81&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U81" t="b">
-        <f>(S81&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V81" s="15">
@@ -18664,19 +18542,19 @@
         <v>0.98674808421573101</v>
       </c>
       <c r="X81" s="2">
-        <f>(V81&lt;0.85)+(W81&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y81" t="b">
-        <f>(W81&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18700,11 +18578,11 @@
         <v>1.0270309792183401</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H82" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I82" s="1">
@@ -18720,19 +18598,19 @@
         <v>1.09843855469081</v>
       </c>
       <c r="M82" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N82" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R82" s="1">
@@ -18744,11 +18622,11 @@
         <v>1.1189740899387599</v>
       </c>
       <c r="T82" s="2">
-        <f>(R82&lt;0.85)+(S82&lt;0.85)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="U82" t="b">
-        <f>(S82&lt;0.75)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="V82" s="15">
@@ -18760,19 +18638,19 @@
         <v>1.05837038419475</v>
       </c>
       <c r="X82" s="2">
-        <f>(V82&lt;0.85)+(W82&lt;0.85)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y82" t="b">
-        <f>(W82&lt;0.75)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -18783,58 +18661,25 @@
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C8:F82 I8:L82">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="lessThanOrEqual">
+      <formula>0.85</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThanOrEqual">
       <formula>1.15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="lessThanOrEqual">
-      <formula>0.85</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H82 N8:N82">
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="8" priority="16" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R7:S7 V7:W7">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="lessThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8:W82">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThanOrEqual">
-      <formula>1.15</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThanOrEqual">
-      <formula>0.85</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8:U82">
-    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",U8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8:Y82">
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",Y8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThanOrEqual">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18846,6 +18691,39 @@
         <color theme="0"/>
         <color theme="9" tint="0.59999389629810485"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:S7">
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:W82">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThanOrEqual">
+      <formula>1.15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThanOrEqual">
+      <formula>0.85</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8:U82">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",U8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7:W7">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8:Y82">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",Y8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z8:AA82">
